--- a/Data Collection/Persons/Christian Drosten/Christian_Drosten_all.xlsx
+++ b/Data Collection/Persons/Christian Drosten/Christian_Drosten_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\.spyder-py3\Christian Drosten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phildickson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4D34D3-6B91-4F94-A2FD-2BF07F847E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCA8CFA-4982-7446-8601-E77B03396331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="510">
   <si>
     <t>title</t>
   </si>
@@ -439,26 +439,7 @@
 Die PCR-Tests für Sars-CoV-2 sind von Anfang an besser validiert und technisch aufgesetzt (das liegt einfach am Fortschritt der Technik) und inzwischen als formal zugelassene In-vitro-Diagnostika von einer Vielzahl von Herstellern erhältlich.</t>
   </si>
   <si>
-    <t>(86) Das Beispiel Indien | NDR.de - Nachrichten</t>
-  </si>
-  <si>
     <t>NDR</t>
-  </si>
-  <si>
-    <t>27 Apr 2021</t>
-  </si>
-  <si>
-    <t>Die NDR Wissenschaftsredakteurinnen Korinna Hennig und Beke Schulmann sprechen dazu im Wechsel mit Christian Drosten, Leiter der Virologie in der ...</t>
-  </si>
-  <si>
-    <t>https://www.ndr.de/nachrichten/info/86-Das-Beispiel-Indien,audio878640.html</t>
-  </si>
-  <si>
-    <t>Sendung: Das Coronavirus-Update von NDR Info | 27.04.2021 | 17:39 Uhr | von Korinna Hennig103 Min | Verfügbar bis 31.12.2099Wie schwindende Antikörper die Pandemie-Dynamik beeinflussen.
-Und was das für die Impfstrategie bedeutet.
-Längst haben wir uns an Maßnahmen wie Mundschutz, Abstand und Hygieneregeln gewöhnt.
-Dabei soll es nicht um Panikmache gehen - sondern ganz im Gegenteil: Der Podcast "Coronavirus-Update" will informieren, einordnen und Hintergründe liefern.
-Wer eine Frage für die Podcast-Interviews mit Christian Drosten und Sandra Ciesek hat, kann diese gerne per Mail schicken an: meinefrage@ndr.deNDR Info auf Instagram: https://www.instagram.com/ndr.infoNDR Info auf Facebook: https://www.facebook.com/ndrinfo#coronavirus #covid19 #covid_19 #coronavirusupdate</t>
   </si>
   <si>
     <t>Christian Drosten zeigt sich "positiv überrascht" - und warnt</t>
@@ -888,22 +869,6 @@
 Die ersten Dosen wurden zudem inzwischen in der Stadt Osnabrück und der Region Hannover verabreicht, ebenso wie in Braunschweig und den Landkreisen Nienburg, Lüneburg, Harburg und Rotenburg (Wümme).</t>
   </si>
   <si>
-    <t>Silvesterbilanz: Berliner Polizei nimmt 700 Menschen fest</t>
-  </si>
-  <si>
-    <t>Österreichs Bundeskanzler Sebastian Kurz hat in Berlin mit Virologe Christian Drosten über die Ausbreitung der Delta-Variante gesprochen. dpa/str, 22.06.2021 ...</t>
-  </si>
-  <si>
-    <t>https://www.berliner-zeitung.de/news/silvester-in-berlin-700-festnahmen-durch-die-polizei-li.129543</t>
-  </si>
-  <si>
-    <t>Berlin - Die Berliner Polizei hat in der Silvesternacht 700 Menschen kurzzeitig festgenommen und mehrere Hundert Ermittlungsverfahren eingeleitet.
-Zwischen 18 und 6 Uhr gingen bei der Einsatzleitzentrale 2765 Notrufe ein, wie die Polizei am Neujahrstag mitteilte.
-Zum Jahreswechsel sei in der Hauptstadt vielerorts geknallt worden, jedoch deutlich unter dem Niveau der Vorjahre, sodass die Silvesterfeierlichkeiten für die Polizei „deutlich ruhiger verliefen“.
-Trotzdem hätten die Einsatzkräfte in den Böllerverbotszonen immer wieder eingreifen müssen.
-Laut Polizei wurden an einer Kreuzung in Neukölln Einsatzkräfte aus einer 80-köpfigen Gruppe heraus mit mehreren Molotowcocktails beworfen.</t>
-  </si>
-  <si>
     <t>Mindestens ein Todesopfer nach Erdrutsch in Norwegen</t>
   </si>
   <si>
@@ -923,16 +888,7 @@
 Nach dem Fund der Leiche sollte der Einsatz weiter mit voller Kraft fortgesetzt werden.</t>
   </si>
   <si>
-    <t>Silvester in der Corona-Pandemie: Wie die Welt 2021 begrüßt</t>
-  </si>
-  <si>
     <t>ZDF</t>
-  </si>
-  <si>
-    <t>Aktuelles zur Coronavirus-Krise. Archiv: Christian Drosten während der Bundespressekonferenz zur Corona-Lage im Lockdown.</t>
-  </si>
-  <si>
-    <t>https://www.zdf.de/nachrichten/panorama/corona-silvester-feuerwerk-feiern-100.html</t>
   </si>
   <si>
     <t>Das Passwort muss mindestens einen Großbuchstaben enthalten.
@@ -942,22 +898,6 @@
 BenutzernameDas Passwort muss mindestens 8 Zeichen lang sein, einen Großbuchstaben und eine Ziffer enthalten.</t>
   </si>
   <si>
-    <t>Virus-Mutation: Türkei stoppt Einreise aus Großbritannien</t>
-  </si>
-  <si>
-    <t>Österreichs Bundeskanzler Sebastian Kurz hat in Berlin mit Virologe Christian Drosten über die Ausbreitung der Delta-Variante gesprochen. dpa/str, 22.06.2021.</t>
-  </si>
-  <si>
-    <t>https://www.berliner-zeitung.de/news/corona-mutation-tuerkei-stoppt-einreise-aus-grossbritannien-li.129563</t>
-  </si>
-  <si>
-    <t>Istanbul - Nach ersten entdeckten Fällen der Coronavirus-Mutation aus Großbritannien hat die Türkei einen vorübergehenden Einreisestopp für Reisende aus dem Land verkündet.
-Der türkische Gesundheitsminister Fahrettin Koca schrieb am Freitag auf Twitter, 15 Menschen, die aus Großbritannien kamen, seien positiv auf die Variante getestet worden.
-Die Türkei hatte zuletzt eingeführt, dass alle Einreisenden einen negativen PCR-Test vorweisen müssen.
-In dem Land mit rund 83 Millionen Einwohnern sind bisher 2,22 Millionen Corona-Infektionen und 21.093 Tote bekannt.
-Die meisten EU-Staaten hatten nach Bekanntwerden der Mutation entschieden, Reisen aus und nach Großbritannien weitgehend einzuschränken, um die Verbreitung zu verhindern.</t>
-  </si>
-  <si>
     <t>Mit 4,59 Promille ins neue Jahr</t>
   </si>
   <si>
@@ -971,25 +911,6 @@
 Insgesamt zog die Münchner Polizei eine positive Bilanz: „Es gab sehr wenige Menschen, die außerhalb ihrer Grundstücke unterwegs waren, um zu knallen“, sagte Winkel.</t>
   </si>
   <si>
-    <t>Das sind die neuen Gesichter der Wirtschaft in 2021</t>
-  </si>
-  <si>
-    <t>Business Insider</t>
-  </si>
-  <si>
-    <t>Virologe Christian Drosten zur Delta-Variante: „Wir müssen das ab jetzt wirklich ernst nehmen.“ RSS Die wichtigsten Updates zum Coronavirus · Wegen Corona: ...</t>
-  </si>
-  <si>
-    <t>https://www.businessinsider.de/wirtschaft/diese-neuen-manager-zaehlen-in-2021-zu-den-wichtigsten-fuehrungspersonen-der-deutschen-wirtschaft-a/</t>
-  </si>
-  <si>
-    <t>Wir stellen euch die neuen Manager vor, die aufgrund ihrer Posten viel Einfluß in der deutschen Wirtschaft haben.
-Business Insider stellt euch die neuen Chefinnen und Chefs vor, die aufgrund ihrer Posten großen Einfluß haben.
-Der gelernte Ingenieur aus Erlangen wird künftig einen kleineren Konzern leiten, denn Vorgänger Kaeser hat die Aufteilung von Siemens in drei eigenständigen Firmen, der Siemens AG, Siemens Energy und Siemens Healthineers noch in seiner Amtszeit abgeschlossen.
-Die Siemens AG, der Busch vorsteht, soll sich auf die Digitalisierung von Industrie, Infrastruktur und Mobilität konzentrieren – und Digitalexperte Busch der richtige dafür sein.
-Der SZ sagte er: „Wir brauchen eine Führungskultur, bei der nicht immer alles nur von oben nach unten geht.</t>
-  </si>
-  <si>
     <t>Knapp 23.000 Neuinfektionen in Deutschland</t>
   </si>
   <si>
@@ -1788,54 +1709,6 @@
 Oder auch eben nicht, wenn dort Prio 1-3 aufgrecht erhalten bleibt.</t>
   </si>
   <si>
-    <t>Verstöße gegen Corona-Regeln: Post stellt in Duisburger ...</t>
-  </si>
-  <si>
-    <t>Verlagshaus Jaumann</t>
-  </si>
-  <si>
-    <t>... und in vielen Ländern schon verbreitet: Die neue Delta-Variante des Coronavirus bereitet vielen Fachleuten Sorgen. Was der Virologe Christian Drosten jetzt ...</t>
-  </si>
-  <si>
-    <t>https://www.verlagshaus-jaumann.de/inhalt.verstoesse-gegen-corona-regeln-post-stellt-in-duisburger-sackgasse-nicht-direkt-zu.272dd164-4e2d-4743-b161-5b87e3ed3331.html</t>
-  </si>
-  <si>
-    <t>Die Situation für Zusteller sei durch distanzloses Verhalten vieler Anwohner, die zumeist auch keine Masken trügen, nicht mehr tolerabel gewesen, sagte die Sprecherin der Deutschen Post, Britta Töllner, der Deutschen Presse-Agentur.
-Die Sackgasse im Duisburger Stadtteil Rheinhausen wird von Wohnblocks gesäumt.
-Seit Beginn der Corona-Pandemie seien die Transporter der Zusteller immer wieder von den Anwohnern umringt worden.
-Postmitarbeiter hätten nicht mehr aussteigen wollen und sich durch zu wenig Corona-Abstand bedrängt und durch fehlende Masken in ihrer Sicherheit gefährdet gefühlt, sagte Töllner weiter.
-Es habe zwar keine Übergriffe gegeben, vereinzelt sei es aber auch zu verbal aggressiv aufgeladenen Situationen gekommen.</t>
-  </si>
-  <si>
-    <t>EU-Klimaschutzkommissar fordert ältere Generation zu Fairness auf</t>
-  </si>
-  <si>
-    <t>... Virologe Christian Drosten zur Delta-Variante: „Wir müssen das ab jetzt wirklich ernst nehmen.“ Bei diesem LTE-Tarif bekommt ihr für 17 Euro im Monat aktuell ...</t>
-  </si>
-  <si>
-    <t>https://www.businessinsider.de/politik/eu-klimaschutzkommissar-fordert-aeltere-generation-zu-fairness-auf/</t>
-  </si>
-  <si>
-    <t>Im Interview plädierte er dafür, die sozialen Auswirkungen der Klimapolitik stärker in den Blick zu rücken, um eine politische Gegenbewegung zu verhindern.
-Außerdem forderte er die ältere Generation zu Fairness und Solidarität auf.
-Daran habe ich keinen Zweifel.“Timmermans erklärt auch: Der Klimawandel sei nicht nur ein drängendes, sondern auch ein schwieriges Problem.
-Wenn Politiker hier nicht umsichtig vorgehen, würden die Kosten für die Veränderung von bestimmten gesellschaftlichen Bereichen ungleich stärker getragen, so die Zeitung.
-Auch Timmermans sieht die sozialen Probleme als größte Bedrohung für die Bekämpfung des Klimawandels.</t>
-  </si>
-  <si>
-    <t>Corona: Tausende Impfdosen in Hamburg weggeworfen</t>
-  </si>
-  <si>
-    <t>https://www.berliner-zeitung.de/news/corona-tausende-impfdosen-in-hamburg-weggeworfen-li.156425</t>
-  </si>
-  <si>
-    <t>Dennoch landen täglich Impfdosen im Müll – Tausende sollen es allein in Hamburg sein.
-Dabei handelt es sich nach einem Bericht von NDR Info um Impfstoff, der als sogenannte Überschussmenge pro Fläschchen oder Ampulle mitgeliefert wird.
-Es wird also immer ein bisschen mehr Serum pro Ampulle ausgeliefert, als verspritzt werden kann.
-Wird dieser Impfstoff trotzdem verwendet, geht das über die Zahl der Impfeinheiten hinaus, die von der Europäischen Arzneimittelbehörde (EMA) je Ampulle erlaubt ist.
-Recherchen von NDR Info zeigen, dass Ärztinnen und Ärzte im Norden unterschiedlich mit dieser unklaren rechtlichen Situation umgehen.</t>
-  </si>
-  <si>
     <t>Feuer-Drama in indischem Krankenhaus: Covid-19-Patienten bei lebendigem Leib verbrannt</t>
   </si>
   <si>
@@ -2026,22 +1899,6 @@
 Immer dienstags gibt es eine neue Folge des Podcasts.</t>
   </si>
   <si>
-    <t>(87) Die zweite Spritze macht den Unterschied | NDR.de ...</t>
-  </si>
-  <si>
-    <t>Wer eine Frage für die Podcast-Interviews mit Christian Drosten und Sandra Ciesek hat, kann diese gerne per Mail schicken an: meinefrage@ndr.de. NDR Info ...</t>
-  </si>
-  <si>
-    <t>https://www.ndr.de/nachrichten/info/87-Die-zweite-Spritze-macht-Unterschied,audio883008.html</t>
-  </si>
-  <si>
-    <t>Sendung: Das Coronavirus-Update von NDR Info | 04.05.2021 | 17:42 Uhr | von Korinna Hennig99 Min | Verfügbar bis 31.12.2099Wann Impfstoffe wirken - und welche Risiken bleiben.
-Die Themen mit den Timecodes:00:01:15 Sinkende Inzidenzen: Grund für Optimismus?
-00:07:22 Zusammenhang Impfreaktion und Immunantwort00:12:48 Studienlage zu Impfreaktionen00:16:02 Verzögerte lokale Impfreaktionen00:22:35 Herzmuskelentzündungen nach Biontech-Impfung?
-Die NDR Wissenschaftsredakteurinnen Korinna Hennig und Beke Schulmann sprechen dazu im Wechsel mit Christian Drosten, Leiter der Virologie in der Berliner Charité, und mit Sandra Ciesek, Leiterin des Instituts für Medizinische Virologie am Universitätsklinikum Frankfurt.
-Dabei soll es nicht um Panikmache gehen - sondern ganz im Gegenteil: Der Podcast "Coronavirus-Update" will informieren, einordnen und Hintergründe liefern.</t>
-  </si>
-  <si>
     <t>NDR Info Podcast „Das Coronavirus-Update“ erreicht mehr als 100 Millionen Abrufe</t>
   </si>
   <si>
@@ -2059,6 +1916,9 @@
 Das NDR Audio Lab “Think Audio” hatte den Podcast nach einer Idee des „Think Audio“-Leiters Norbert Grundei gemeinsam mit NDR Info an den Start gebracht.
 Das NDR Info „Coronavirus-Update“ ist verfügbar: immer dienstags ab 17.00 Uhr auf www.NDR.de/coronaupdate, in der ARD Audiothek und dort, wo es Podcasts gibt.
 Eine gekürzte Version läuft dienstags um 18.05 Uhr im Radio auf NDR Info.</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +1961,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2124,18 +1984,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2417,15 +2291,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A111"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2450,8 +2324,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2476,8 +2353,11 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2502,8 +2382,11 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2528,8 +2411,11 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2554,8 +2440,11 @@
       <c r="I5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2580,8 +2469,11 @@
       <c r="I6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2606,8 +2498,11 @@
       <c r="I7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2632,8 +2527,11 @@
       <c r="I8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2658,8 +2556,11 @@
       <c r="I9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2684,8 +2585,11 @@
       <c r="I10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2710,8 +2614,11 @@
       <c r="I11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2736,8 +2643,11 @@
       <c r="I12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2765,8 +2675,11 @@
       <c r="I13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2791,8 +2704,11 @@
       <c r="I14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2820,8 +2736,11 @@
       <c r="I15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2846,8 +2765,11 @@
       <c r="I16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2872,8 +2794,11 @@
       <c r="I17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2901,8 +2826,11 @@
       <c r="I18" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2927,8 +2855,11 @@
       <c r="I19" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2953,16 +2884,19 @@
       <c r="I20" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>114</v>
@@ -2979,68 +2913,77 @@
       <c r="I21" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
       </c>
-      <c r="I22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>123</v>
       </c>
       <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
         <v>124</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>127</v>
       </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
         <v>128</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>125</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
@@ -3054,97 +2997,109 @@
       <c r="I24" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s">
         <v>134</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>133</v>
       </c>
       <c r="F28" t="s">
         <v>150</v>
@@ -3158,10 +3113,13 @@
       <c r="I28" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>153</v>
@@ -3170,7 +3128,7 @@
         <v>154</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -3184,10 +3142,13 @@
       <c r="I29" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>158</v>
@@ -3196,59 +3157,65 @@
         <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" t="s">
         <v>166</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" t="s">
-        <v>171</v>
       </c>
       <c r="F32" t="s">
         <v>172</v>
@@ -3259,42 +3226,48 @@
       <c r="H32" t="s">
         <v>13</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
         <v>175</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F33" t="s">
         <v>176</v>
       </c>
-      <c r="D33" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
         <v>178</v>
       </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
         <v>180</v>
@@ -3311,16 +3284,19 @@
       <c r="I34" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>184</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
         <v>185</v>
@@ -3337,16 +3313,19 @@
       <c r="I35" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>189</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
         <v>190</v>
@@ -3363,19 +3342,22 @@
       <c r="I36" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
         <v>196</v>
@@ -3389,10 +3371,13 @@
       <c r="I37" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>199</v>
@@ -3401,56 +3386,62 @@
         <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
         <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" t="s">
-        <v>211</v>
       </c>
       <c r="D40" t="s">
         <v>212</v>
@@ -3464,19 +3455,19 @@
       <c r="H40" t="s">
         <v>13</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>216</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
       </c>
       <c r="D41" t="s">
         <v>217</v>
@@ -3490,19 +3481,25 @@
       <c r="H41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>220</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F42" t="s">
         <v>223</v>
@@ -3516,45 +3513,51 @@
       <c r="I42" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>226</v>
       </c>
       <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" t="s">
         <v>227</v>
       </c>
-      <c r="D43" t="s">
-        <v>222</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
         <v>229</v>
       </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>231</v>
       </c>
-      <c r="C44" t="s">
-        <v>113</v>
-      </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
         <v>232</v>
@@ -3568,45 +3571,51 @@
       <c r="I44" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F45" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
         <v>241</v>
@@ -3620,19 +3629,22 @@
       <c r="I46" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>244</v>
       </c>
       <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
         <v>245</v>
-      </c>
-      <c r="D47" t="s">
-        <v>222</v>
       </c>
       <c r="F47" t="s">
         <v>246</v>
@@ -3646,19 +3658,22 @@
       <c r="I47" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>249</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="F48" t="s">
         <v>250</v>
@@ -3670,24 +3685,27 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
+        <v>225</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" t="s">
         <v>253</v>
-      </c>
-      <c r="C49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D49" t="s">
-        <v>222</v>
-      </c>
-      <c r="F49" t="s">
-        <v>241</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>254</v>
@@ -3698,19 +3716,22 @@
       <c r="I49" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
         <v>256</v>
       </c>
       <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
         <v>257</v>
-      </c>
-      <c r="D50" t="s">
-        <v>222</v>
       </c>
       <c r="F50" t="s">
         <v>258</v>
@@ -3724,1001 +3745,1124 @@
       <c r="I50" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>261</v>
       </c>
       <c r="C51" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="F51" t="s">
+        <v>263</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>265</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" t="s">
+        <v>268</v>
+      </c>
+      <c r="F52" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>271</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>272</v>
+      </c>
+      <c r="C53" t="s">
+        <v>273</v>
+      </c>
+      <c r="D53" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53" t="s">
+        <v>275</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>277</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" t="s">
         <v>262</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" t="s">
-        <v>266</v>
-      </c>
-      <c r="F52" t="s">
-        <v>267</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>270</v>
-      </c>
-      <c r="C53" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" t="s">
-        <v>266</v>
-      </c>
-      <c r="F53" t="s">
-        <v>271</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>273</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="F54" t="s">
+        <v>280</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>282</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D55" t="s">
+        <v>257</v>
+      </c>
+      <c r="F55" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>287</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" t="s">
+        <v>289</v>
+      </c>
+      <c r="F56" t="s">
+        <v>290</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>292</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>294</v>
+      </c>
+      <c r="F57" t="s">
+        <v>295</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>297</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" t="s">
+        <v>294</v>
+      </c>
+      <c r="F58" t="s">
+        <v>299</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>301</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>302</v>
+      </c>
+      <c r="C59" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" t="s">
+        <v>304</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>306</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" t="s">
+        <v>308</v>
+      </c>
+      <c r="F60" t="s">
+        <v>309</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>311</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>312</v>
+      </c>
+      <c r="C61" t="s">
+        <v>313</v>
+      </c>
+      <c r="D61" t="s">
+        <v>308</v>
+      </c>
+      <c r="F61" t="s">
+        <v>314</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>316</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>317</v>
+      </c>
+      <c r="C62" t="s">
+        <v>318</v>
+      </c>
+      <c r="D62" t="s">
+        <v>319</v>
+      </c>
+      <c r="F62" t="s">
+        <v>320</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>322</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>323</v>
+      </c>
+      <c r="C63" t="s">
+        <v>324</v>
+      </c>
+      <c r="D63" t="s">
+        <v>294</v>
+      </c>
+      <c r="F63" t="s">
+        <v>325</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>327</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>328</v>
+      </c>
+      <c r="C64" t="s">
+        <v>329</v>
+      </c>
+      <c r="D64" t="s">
+        <v>330</v>
+      </c>
+      <c r="F64" t="s">
+        <v>331</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>333</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>334</v>
+      </c>
+      <c r="C65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F65" t="s">
+        <v>337</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>339</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" t="s">
+        <v>341</v>
+      </c>
+      <c r="F66" t="s">
+        <v>342</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>344</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67" t="s">
+        <v>347</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>349</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>350</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" t="s">
+        <v>352</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>354</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>355</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" t="s">
+        <v>346</v>
+      </c>
+      <c r="F69" t="s">
+        <v>356</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>358</v>
+      </c>
+      <c r="C70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" t="s">
+        <v>359</v>
+      </c>
+      <c r="F70" t="s">
+        <v>360</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>362</v>
+      </c>
+      <c r="C71" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" t="s">
+        <v>363</v>
+      </c>
+      <c r="F71" t="s">
+        <v>364</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>366</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>367</v>
+      </c>
+      <c r="C72" t="s">
+        <v>368</v>
+      </c>
+      <c r="D72" t="s">
+        <v>359</v>
+      </c>
+      <c r="F72" t="s">
+        <v>369</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>371</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" t="s">
+        <v>373</v>
+      </c>
+      <c r="F73" t="s">
+        <v>374</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>376</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>377</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" t="s">
+        <v>346</v>
+      </c>
+      <c r="F74" t="s">
+        <v>378</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>380</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>381</v>
+      </c>
+      <c r="C75" t="s">
+        <v>382</v>
+      </c>
+      <c r="D75" t="s">
+        <v>383</v>
+      </c>
+      <c r="F75" t="s">
+        <v>384</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>386</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" t="s">
+        <v>388</v>
+      </c>
+      <c r="F76" t="s">
+        <v>389</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>391</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>392</v>
+      </c>
+      <c r="C77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" t="s">
+        <v>393</v>
+      </c>
+      <c r="F77" t="s">
+        <v>394</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>396</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>397</v>
+      </c>
+      <c r="C78" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" t="s">
+        <v>398</v>
+      </c>
+      <c r="F78" t="s">
+        <v>399</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>401</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>402</v>
+      </c>
+      <c r="C79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" t="s">
+        <v>403</v>
+      </c>
+      <c r="F79" t="s">
+        <v>404</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>406</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>407</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>408</v>
+      </c>
+      <c r="F80" t="s">
+        <v>409</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>411</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>412</v>
+      </c>
+      <c r="C81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" t="s">
+        <v>413</v>
+      </c>
+      <c r="F81" t="s">
+        <v>414</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>416</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>417</v>
+      </c>
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" t="s">
+        <v>418</v>
+      </c>
+      <c r="F82" t="s">
+        <v>419</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>421</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>422</v>
+      </c>
+      <c r="C83" t="s">
         <v>22</v>
       </c>
-      <c r="D54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F54" t="s">
-        <v>274</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>277</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
-        <v>278</v>
-      </c>
-      <c r="F55" t="s">
-        <v>279</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" t="s">
-        <v>283</v>
-      </c>
-      <c r="F56" t="s">
-        <v>284</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>287</v>
-      </c>
-      <c r="C57" t="s">
-        <v>288</v>
-      </c>
-      <c r="D57" t="s">
-        <v>289</v>
-      </c>
-      <c r="F57" t="s">
-        <v>290</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>293</v>
-      </c>
-      <c r="C58" t="s">
-        <v>294</v>
-      </c>
-      <c r="D58" t="s">
-        <v>295</v>
-      </c>
-      <c r="F58" t="s">
-        <v>296</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H58" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>299</v>
-      </c>
-      <c r="C59" t="s">
-        <v>300</v>
-      </c>
-      <c r="D59" t="s">
-        <v>283</v>
-      </c>
-      <c r="F59" t="s">
-        <v>301</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>304</v>
-      </c>
-      <c r="C60" t="s">
-        <v>305</v>
-      </c>
-      <c r="D60" t="s">
-        <v>278</v>
-      </c>
-      <c r="F60" t="s">
-        <v>306</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H60" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>309</v>
-      </c>
-      <c r="C61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" t="s">
-        <v>310</v>
-      </c>
-      <c r="F61" t="s">
-        <v>311</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H61" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>314</v>
-      </c>
-      <c r="C62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" t="s">
-        <v>315</v>
-      </c>
-      <c r="F62" t="s">
-        <v>316</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="H62" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>319</v>
-      </c>
-      <c r="C63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" t="s">
-        <v>315</v>
-      </c>
-      <c r="F63" t="s">
-        <v>320</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>323</v>
-      </c>
-      <c r="C64" t="s">
-        <v>324</v>
-      </c>
-      <c r="D64" t="s">
-        <v>315</v>
-      </c>
-      <c r="F64" t="s">
-        <v>325</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>328</v>
-      </c>
-      <c r="C65" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="D83" t="s">
+        <v>423</v>
+      </c>
+      <c r="F83" t="s">
+        <v>424</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>426</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>427</v>
+      </c>
+      <c r="C84" t="s">
+        <v>428</v>
+      </c>
+      <c r="D84" t="s">
+        <v>429</v>
+      </c>
+      <c r="F84" t="s">
+        <v>430</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>432</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>433</v>
+      </c>
+      <c r="C85" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" t="s">
+        <v>434</v>
+      </c>
+      <c r="F85" t="s">
+        <v>435</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>437</v>
+      </c>
+      <c r="C86" t="s">
         <v>329</v>
       </c>
-      <c r="F65" t="s">
-        <v>330</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>333</v>
-      </c>
-      <c r="C66" t="s">
-        <v>334</v>
-      </c>
-      <c r="D66" t="s">
-        <v>329</v>
-      </c>
-      <c r="F66" t="s">
-        <v>335</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="H66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>338</v>
-      </c>
-      <c r="C67" t="s">
-        <v>339</v>
-      </c>
-      <c r="D67" t="s">
-        <v>340</v>
-      </c>
-      <c r="F67" t="s">
-        <v>341</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H67" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>344</v>
-      </c>
-      <c r="C68" t="s">
-        <v>345</v>
-      </c>
-      <c r="D68" t="s">
-        <v>315</v>
-      </c>
-      <c r="F68" t="s">
-        <v>346</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="H68" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>349</v>
-      </c>
-      <c r="C69" t="s">
-        <v>350</v>
-      </c>
-      <c r="D69" t="s">
-        <v>351</v>
-      </c>
-      <c r="F69" t="s">
-        <v>352</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H69" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>355</v>
-      </c>
-      <c r="C70" t="s">
-        <v>356</v>
-      </c>
-      <c r="D70" t="s">
-        <v>357</v>
-      </c>
-      <c r="F70" t="s">
-        <v>358</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>361</v>
-      </c>
-      <c r="C71" t="s">
-        <v>66</v>
-      </c>
-      <c r="D71" t="s">
-        <v>362</v>
-      </c>
-      <c r="F71" t="s">
-        <v>363</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H71" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>366</v>
-      </c>
-      <c r="C72" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" t="s">
-        <v>367</v>
-      </c>
-      <c r="F72" t="s">
-        <v>368</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="H72" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>371</v>
-      </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" t="s">
-        <v>372</v>
-      </c>
-      <c r="F73" t="s">
-        <v>373</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="H73" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="D86" t="s">
+        <v>393</v>
+      </c>
+      <c r="F86" t="s">
+        <v>438</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>440</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>441</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" t="s">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>376</v>
-      </c>
-      <c r="C74" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" t="s">
-        <v>367</v>
-      </c>
-      <c r="F74" t="s">
-        <v>377</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>379</v>
-      </c>
-      <c r="C75" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" t="s">
-        <v>380</v>
-      </c>
-      <c r="F75" t="s">
-        <v>381</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>383</v>
-      </c>
-      <c r="C76" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" t="s">
-        <v>384</v>
-      </c>
-      <c r="F76" t="s">
-        <v>385</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H76" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>388</v>
-      </c>
-      <c r="C77" t="s">
-        <v>389</v>
-      </c>
-      <c r="D77" t="s">
-        <v>380</v>
-      </c>
-      <c r="F77" t="s">
-        <v>390</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="H77" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>393</v>
-      </c>
-      <c r="C78" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" t="s">
-        <v>394</v>
-      </c>
-      <c r="F78" t="s">
-        <v>395</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H78" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>398</v>
-      </c>
-      <c r="C79" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79" t="s">
-        <v>367</v>
-      </c>
-      <c r="F79" t="s">
-        <v>399</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>402</v>
-      </c>
-      <c r="C80" t="s">
-        <v>403</v>
-      </c>
-      <c r="D80" t="s">
-        <v>404</v>
-      </c>
-      <c r="F80" t="s">
-        <v>405</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H80" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>408</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="E87" s="3">
+        <v>44339.893777946498</v>
+      </c>
+      <c r="F87" t="s">
+        <v>442</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>444</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>445</v>
+      </c>
+      <c r="C88" t="s">
+        <v>231</v>
+      </c>
+      <c r="D88" t="s">
+        <v>446</v>
+      </c>
+      <c r="E88" s="3">
+        <v>44339.893779234619</v>
+      </c>
+      <c r="F88" t="s">
+        <v>241</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>448</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>92</v>
       </c>
-      <c r="D81" t="s">
-        <v>409</v>
-      </c>
-      <c r="F81" t="s">
-        <v>410</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H81" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>413</v>
-      </c>
-      <c r="C82" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" t="s">
-        <v>414</v>
-      </c>
-      <c r="F82" t="s">
-        <v>415</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>418</v>
-      </c>
-      <c r="C83" t="s">
-        <v>32</v>
-      </c>
-      <c r="D83" t="s">
-        <v>419</v>
-      </c>
-      <c r="F83" t="s">
-        <v>420</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H83" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>423</v>
-      </c>
-      <c r="C84" t="s">
-        <v>66</v>
-      </c>
-      <c r="D84" t="s">
-        <v>424</v>
-      </c>
-      <c r="F84" t="s">
-        <v>425</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H84" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>428</v>
-      </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s">
-        <v>429</v>
-      </c>
-      <c r="F85" t="s">
-        <v>430</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>433</v>
-      </c>
-      <c r="C86" t="s">
-        <v>113</v>
-      </c>
-      <c r="D86" t="s">
-        <v>434</v>
-      </c>
-      <c r="F86" t="s">
-        <v>435</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H86" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>438</v>
-      </c>
-      <c r="C87" t="s">
-        <v>81</v>
-      </c>
-      <c r="D87" t="s">
-        <v>439</v>
-      </c>
-      <c r="F87" t="s">
-        <v>440</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="H87" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>443</v>
-      </c>
-      <c r="C88" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" t="s">
-        <v>444</v>
-      </c>
-      <c r="F88" t="s">
-        <v>445</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H88" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
       <c r="B89" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C89" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D89" t="s">
-        <v>450</v>
+        <v>72</v>
+      </c>
+      <c r="E89" s="3">
+        <v>44339.893779257778</v>
       </c>
       <c r="F89" t="s">
         <v>451</v>
@@ -4732,19 +4876,25 @@
       <c r="I89" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
         <v>454</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>455</v>
       </c>
       <c r="D90" t="s">
-        <v>455</v>
+        <v>72</v>
+      </c>
+      <c r="E90" s="3">
+        <v>44339.893779373517</v>
       </c>
       <c r="F90" t="s">
         <v>456</v>
@@ -4755,22 +4905,31 @@
       <c r="H90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>458</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C91" t="s">
-        <v>350</v>
+        <v>231</v>
       </c>
       <c r="D91" t="s">
-        <v>414</v>
+        <v>72</v>
+      </c>
+      <c r="E91" s="3">
+        <v>44339.893779396683</v>
       </c>
       <c r="F91" t="s">
-        <v>459</v>
+        <v>232</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>460</v>
@@ -4781,579 +4940,354 @@
       <c r="I91" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
         <v>462</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="D92" t="s">
         <v>72</v>
       </c>
       <c r="E92" s="3">
-        <v>44339.893777946498</v>
+        <v>44339.893779431397</v>
       </c>
       <c r="F92" t="s">
+        <v>241</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
         <v>464</v>
       </c>
-      <c r="H92" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="3">
+        <v>44339.893779466132</v>
+      </c>
+      <c r="F93" t="s">
         <v>466</v>
       </c>
-      <c r="C93" t="s">
-        <v>240</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="G93" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E93" s="3">
-        <v>44339.893779234619</v>
-      </c>
-      <c r="F93" t="s">
-        <v>262</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
         <v>468</v>
       </c>
-      <c r="H93" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>470</v>
-      </c>
       <c r="C94" t="s">
-        <v>471</v>
+        <v>235</v>
       </c>
       <c r="D94" t="s">
         <v>72</v>
       </c>
       <c r="E94" s="3">
-        <v>44339.893779257778</v>
+        <v>44339.89407686991</v>
       </c>
       <c r="F94" t="s">
+        <v>470</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>236</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
         <v>472</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="H94" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>475</v>
-      </c>
       <c r="C95" t="s">
-        <v>476</v>
+        <v>119</v>
       </c>
       <c r="D95" t="s">
         <v>72</v>
       </c>
       <c r="E95" s="3">
-        <v>44339.893779280937</v>
+        <v>44339.894076893062</v>
       </c>
       <c r="F95" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
       </c>
-      <c r="I95" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C96" t="s">
-        <v>257</v>
+        <v>476</v>
       </c>
       <c r="D96" t="s">
         <v>72</v>
       </c>
       <c r="E96" s="3">
-        <v>44339.893779315658</v>
+        <v>44339.894076916207</v>
       </c>
       <c r="F96" t="s">
+        <v>477</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>479</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>480</v>
+      </c>
+      <c r="C97" t="s">
         <v>481</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H96" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>484</v>
-      </c>
-      <c r="C97" t="s">
-        <v>38</v>
       </c>
       <c r="D97" t="s">
         <v>72</v>
       </c>
       <c r="E97" s="3">
-        <v>44339.89377933881</v>
+        <v>44339.894076939367</v>
       </c>
       <c r="F97" t="s">
-        <v>250</v>
+        <v>482</v>
       </c>
       <c r="G97" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>484</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
         <v>485</v>
       </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="C98" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>487</v>
-      </c>
-      <c r="C98" t="s">
-        <v>488</v>
       </c>
       <c r="D98" t="s">
         <v>72</v>
       </c>
       <c r="E98" s="3">
-        <v>44339.893779373517</v>
+        <v>44339.894076962511</v>
       </c>
       <c r="F98" t="s">
+        <v>487</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
         <v>489</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
         <v>490</v>
-      </c>
-      <c r="H98" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>492</v>
-      </c>
-      <c r="C99" t="s">
-        <v>240</v>
       </c>
       <c r="D99" t="s">
         <v>72</v>
       </c>
       <c r="E99" s="3">
-        <v>44339.893779396683</v>
+        <v>44339.894076985664</v>
       </c>
       <c r="F99" t="s">
-        <v>241</v>
+        <v>491</v>
       </c>
       <c r="G99" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
         <v>493</v>
       </c>
-      <c r="H99" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>106</v>
+      </c>
+      <c r="B100" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>495</v>
-      </c>
-      <c r="C100" t="s">
-        <v>240</v>
       </c>
       <c r="D100" t="s">
         <v>72</v>
       </c>
       <c r="E100" s="3">
-        <v>44339.893779431397</v>
+        <v>44339.894077008823</v>
       </c>
       <c r="F100" t="s">
-        <v>262</v>
+        <v>496</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
       </c>
       <c r="I100" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="D101" t="s">
         <v>72</v>
       </c>
       <c r="E101" s="3">
-        <v>44339.893779466132</v>
+        <v>44339.894077031982</v>
       </c>
       <c r="F101" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
       </c>
       <c r="I101" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C102" t="s">
-        <v>245</v>
+        <v>505</v>
       </c>
       <c r="D102" t="s">
         <v>72</v>
       </c>
       <c r="E102" s="3">
-        <v>44339.89407686991</v>
+        <v>44339.89407707825</v>
       </c>
       <c r="F102" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
       </c>
       <c r="I102" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>505</v>
-      </c>
-      <c r="C103" t="s">
-        <v>124</v>
-      </c>
-      <c r="D103" t="s">
-        <v>72</v>
-      </c>
-      <c r="E103" s="3">
-        <v>44339.894076893062</v>
-      </c>
-      <c r="F103" t="s">
-        <v>506</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
         <v>508</v>
       </c>
-      <c r="C104" t="s">
-        <v>509</v>
-      </c>
-      <c r="D104" t="s">
-        <v>72</v>
-      </c>
-      <c r="E104" s="3">
-        <v>44339.894076916207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>510</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="H104" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>513</v>
-      </c>
-      <c r="C105" t="s">
-        <v>514</v>
-      </c>
-      <c r="D105" t="s">
-        <v>72</v>
-      </c>
-      <c r="E105" s="3">
-        <v>44339.894076939367</v>
-      </c>
-      <c r="F105" t="s">
-        <v>515</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H105" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>518</v>
-      </c>
-      <c r="C106" t="s">
-        <v>519</v>
-      </c>
-      <c r="D106" t="s">
-        <v>72</v>
-      </c>
-      <c r="E106" s="3">
-        <v>44339.894076962511</v>
-      </c>
-      <c r="F106" t="s">
-        <v>520</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="H106" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>523</v>
-      </c>
-      <c r="D107" t="s">
-        <v>72</v>
-      </c>
-      <c r="E107" s="3">
-        <v>44339.894076985664</v>
-      </c>
-      <c r="F107" t="s">
-        <v>524</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>527</v>
-      </c>
-      <c r="C108" t="s">
-        <v>528</v>
-      </c>
-      <c r="D108" t="s">
-        <v>72</v>
-      </c>
-      <c r="E108" s="3">
-        <v>44339.894077008823</v>
-      </c>
-      <c r="F108" t="s">
-        <v>529</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H108" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>532</v>
-      </c>
-      <c r="C109" t="s">
-        <v>533</v>
-      </c>
-      <c r="D109" t="s">
-        <v>72</v>
-      </c>
-      <c r="E109" s="3">
-        <v>44339.894077031982</v>
-      </c>
-      <c r="F109" t="s">
-        <v>534</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H109" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>537</v>
-      </c>
-      <c r="C110" t="s">
-        <v>113</v>
-      </c>
-      <c r="D110" t="s">
-        <v>72</v>
-      </c>
-      <c r="E110" s="3">
-        <v>44339.894077055113</v>
-      </c>
-      <c r="F110" t="s">
-        <v>538</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>541</v>
-      </c>
-      <c r="C111" t="s">
-        <v>542</v>
-      </c>
-      <c r="D111" t="s">
-        <v>72</v>
-      </c>
-      <c r="E111" s="3">
-        <v>44339.89407707825</v>
-      </c>
-      <c r="F111" t="s">
-        <v>543</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="H111" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" t="s">
-        <v>545</v>
+      <c r="J102">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5377,97 +5311,88 @@
     <hyperlink ref="G18" r:id="rId17" xr:uid="{033A6223-4FD8-4C1B-A295-4E09A3EB64ED}"/>
     <hyperlink ref="G19" r:id="rId18" xr:uid="{710884AE-E3A2-48CC-995F-AC4DE1494BD2}"/>
     <hyperlink ref="G20" r:id="rId19" xr:uid="{CD095498-EBF7-4A29-9C07-FDF9D298B301}"/>
-    <hyperlink ref="G21" r:id="rId20" xr:uid="{EE3CB033-9BB1-410D-8D0F-73D03458D072}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{AFE51801-874F-4F01-A482-1D40CC7A07C9}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{031C2FF6-4EE5-4F02-A5AF-AA05B3BF9155}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{0AC8C0A1-168C-4DDD-8619-731F5322018E}"/>
-    <hyperlink ref="G25" r:id="rId24" xr:uid="{63E8D412-428A-41DB-9599-D85C7B2F27E9}"/>
-    <hyperlink ref="G26" r:id="rId25" xr:uid="{8EB1CC32-5641-4D96-8C25-F663BFD23839}"/>
-    <hyperlink ref="G27" r:id="rId26" xr:uid="{2C7FC974-0008-432F-BA09-E8FB551D6DA9}"/>
-    <hyperlink ref="G28" r:id="rId27" xr:uid="{CC059F3D-CCFD-408A-A95D-F86506EA9620}"/>
-    <hyperlink ref="G29" r:id="rId28" xr:uid="{EDA3ADE6-4F81-410F-A5A5-962AEDD12E27}"/>
-    <hyperlink ref="G30" r:id="rId29" xr:uid="{6D1F44C6-B92D-4B74-9069-9FDFF05110EC}"/>
-    <hyperlink ref="G31" r:id="rId30" xr:uid="{8DF1515D-4AF2-49C6-AD0A-7C426448BC01}"/>
-    <hyperlink ref="G32" r:id="rId31" xr:uid="{A3B817A3-A3C7-455C-8E64-A39B34F2FFD5}"/>
-    <hyperlink ref="G33" r:id="rId32" xr:uid="{2E9BAC2E-E51A-4F47-B31C-DD6E3CFF0C0D}"/>
-    <hyperlink ref="G34" r:id="rId33" xr:uid="{FE6113D9-1745-4BE6-9905-D63328D819EA}"/>
-    <hyperlink ref="G35" r:id="rId34" xr:uid="{3D45287F-4585-49A9-BD23-70E14C258673}"/>
-    <hyperlink ref="G36" r:id="rId35" xr:uid="{0AFECDEC-80FC-4BC1-8AA2-FDF8193FA5AE}"/>
-    <hyperlink ref="G37" r:id="rId36" xr:uid="{0DE31635-F06F-41C7-A3FE-62386F2CD36E}"/>
-    <hyperlink ref="G38" r:id="rId37" xr:uid="{D332E031-5FFF-4A59-B919-71CAD96742D0}"/>
-    <hyperlink ref="G39" r:id="rId38" xr:uid="{36FA1536-74DD-4E9C-9F16-D07B2AEE3AD6}"/>
-    <hyperlink ref="G40" r:id="rId39" xr:uid="{230B77D7-1744-458E-A40A-2C186B2358C3}"/>
-    <hyperlink ref="G41" r:id="rId40" xr:uid="{C1BA4096-3FD7-4234-95A6-71DF28CD1007}"/>
-    <hyperlink ref="G42" r:id="rId41" xr:uid="{0AAA556C-901C-4982-A689-CC54F237A9B6}"/>
-    <hyperlink ref="G43" r:id="rId42" xr:uid="{25924698-7753-4E74-91FF-291F3815C756}"/>
-    <hyperlink ref="G44" r:id="rId43" xr:uid="{B2897560-8CB6-45F6-BB8E-AA2BFE779DAB}"/>
-    <hyperlink ref="G45" r:id="rId44" xr:uid="{DB759548-710A-4CC1-BFC1-E79E271E00D2}"/>
-    <hyperlink ref="G46" r:id="rId45" xr:uid="{C02DEC0D-2F32-4D0D-A226-0AA304D33995}"/>
-    <hyperlink ref="G47" r:id="rId46" xr:uid="{B84289D2-93CF-416E-A66A-DA5693FB6985}"/>
-    <hyperlink ref="G48" r:id="rId47" xr:uid="{5A39280C-C854-4961-B6D9-098632784554}"/>
-    <hyperlink ref="G49" r:id="rId48" xr:uid="{66BB412E-61F7-447C-B789-D6AA7503EF36}"/>
-    <hyperlink ref="G50" r:id="rId49" xr:uid="{797B0AF3-4E53-4DF1-8B6B-FF7762B70845}"/>
-    <hyperlink ref="G51" r:id="rId50" xr:uid="{27245144-F6F4-4C4E-A720-2E5A59EAE6F5}"/>
-    <hyperlink ref="G52" r:id="rId51" xr:uid="{42F1FF1F-9008-40E7-A47E-141A8DB53E3A}"/>
-    <hyperlink ref="G53" r:id="rId52" xr:uid="{E83BC645-870C-4E81-B6B4-044EB6B01437}"/>
-    <hyperlink ref="G54" r:id="rId53" xr:uid="{A9E8AADF-0F2D-4806-853E-DA7DCC7C8951}"/>
-    <hyperlink ref="G55" r:id="rId54" xr:uid="{5AE8DA31-C6FF-45F5-B659-8F936166BAB4}"/>
-    <hyperlink ref="G56" r:id="rId55" xr:uid="{05FFC44A-2A4A-47E5-A96D-BA55C891D647}"/>
-    <hyperlink ref="G57" r:id="rId56" xr:uid="{5D9F4536-AC4C-41AB-A731-68393E7B2356}"/>
-    <hyperlink ref="G58" r:id="rId57" xr:uid="{15284273-2E50-4026-BE84-86623DB512C4}"/>
-    <hyperlink ref="G59" r:id="rId58" xr:uid="{1144CC60-2F24-4942-891A-D4F4533E513E}"/>
-    <hyperlink ref="G60" r:id="rId59" xr:uid="{E6DB1554-A552-4093-BDF0-16AF329BA45C}"/>
-    <hyperlink ref="G61" r:id="rId60" xr:uid="{CB8C3C17-F4AF-49BB-9581-72AB9B2D6629}"/>
-    <hyperlink ref="G62" r:id="rId61" xr:uid="{755659B7-BA7B-4936-B343-2398BA9F10AD}"/>
-    <hyperlink ref="G63" r:id="rId62" xr:uid="{71E5FDC1-7980-4A36-B6AF-6B37F4A636BF}"/>
-    <hyperlink ref="G64" r:id="rId63" xr:uid="{77C9902D-BE83-4B3B-BA9B-EFFF99953A28}"/>
-    <hyperlink ref="G65" r:id="rId64" xr:uid="{9CCF49C5-B263-4E40-A202-6904E5F9316B}"/>
-    <hyperlink ref="G66" r:id="rId65" xr:uid="{1BA532E1-3DD0-4D1F-88F1-04DE187A4AB4}"/>
-    <hyperlink ref="G67" r:id="rId66" xr:uid="{63920DE0-32F2-43E8-8B95-5F449D5AF8A6}"/>
-    <hyperlink ref="G68" r:id="rId67" xr:uid="{AE7500F1-5861-4B2A-B723-4241B6035B5D}"/>
-    <hyperlink ref="G69" r:id="rId68" xr:uid="{E3C94490-5CF0-4C62-AA39-86FA26ED6E75}"/>
-    <hyperlink ref="G70" r:id="rId69" xr:uid="{A96E82A2-BCE2-47D8-8A33-795187849B66}"/>
-    <hyperlink ref="G71" r:id="rId70" xr:uid="{1FC497A2-1955-44DE-92EA-DA123643050A}"/>
-    <hyperlink ref="G72" r:id="rId71" xr:uid="{E8BBC39C-187B-4A92-949E-8B5B7AF80DD2}"/>
-    <hyperlink ref="G73" r:id="rId72" xr:uid="{6EE04029-1E1F-4A4F-B6B6-10AD093D77BA}"/>
-    <hyperlink ref="G74" r:id="rId73" xr:uid="{ABB3B759-F90B-47BC-8E63-3C3E968A952C}"/>
-    <hyperlink ref="G75" r:id="rId74" xr:uid="{AA467EA7-271B-4969-BF1C-86438FD21EC4}"/>
-    <hyperlink ref="G76" r:id="rId75" xr:uid="{AA39597D-51F1-4E34-BEA8-3CD5C606E9C9}"/>
-    <hyperlink ref="G77" r:id="rId76" xr:uid="{848FB899-24F3-460E-B84F-70C6F6552C6E}"/>
-    <hyperlink ref="G78" r:id="rId77" xr:uid="{D027E740-17FF-4D5D-B86D-42CCDBD7BD27}"/>
-    <hyperlink ref="G79" r:id="rId78" xr:uid="{8285E300-6937-4C57-9407-EEB5BC7C5294}"/>
-    <hyperlink ref="G80" r:id="rId79" xr:uid="{0216F5F0-266B-4005-989F-C1B81D277FAA}"/>
-    <hyperlink ref="G81" r:id="rId80" xr:uid="{E3E6D9D5-9007-43E7-9C75-E98003B81410}"/>
-    <hyperlink ref="G82" r:id="rId81" xr:uid="{A58B497A-CF1C-4506-B9FE-03775C988E55}"/>
-    <hyperlink ref="G83" r:id="rId82" xr:uid="{0D3F3FF8-780C-462A-9369-DFE10ABD3D26}"/>
-    <hyperlink ref="G84" r:id="rId83" xr:uid="{C24EE8C7-5BF0-4EAE-917D-82472DBC345E}"/>
-    <hyperlink ref="G85" r:id="rId84" xr:uid="{07F9E933-2E6B-4340-A8AD-33B1F378C333}"/>
-    <hyperlink ref="G86" r:id="rId85" xr:uid="{BB12DFF7-30F5-4952-B4DE-E23F44C8DAE2}"/>
-    <hyperlink ref="G87" r:id="rId86" xr:uid="{1C0CCEBC-3F43-4C7F-8503-0516650C6560}"/>
-    <hyperlink ref="G88" r:id="rId87" xr:uid="{898B60B1-0A06-4208-A0FC-137AB1CE829B}"/>
-    <hyperlink ref="G89" r:id="rId88" xr:uid="{421E90E0-5661-4806-B05E-E7B07066A362}"/>
-    <hyperlink ref="G90" r:id="rId89" xr:uid="{9E34BF4C-4A56-4855-972B-06B438501807}"/>
-    <hyperlink ref="G91" r:id="rId90" xr:uid="{5854D680-106F-417B-A1DD-D95BB3E66A40}"/>
-    <hyperlink ref="G92" r:id="rId91" xr:uid="{022BBBE6-92DD-4E69-ABE3-D4D154320F0F}"/>
-    <hyperlink ref="G93" r:id="rId92" xr:uid="{7FFF2F00-7B23-41CC-9423-6A4AD3BA1721}"/>
-    <hyperlink ref="G94" r:id="rId93" xr:uid="{A2E7874B-7BDB-4346-878B-3EB20C6FEE87}"/>
-    <hyperlink ref="G95" r:id="rId94" xr:uid="{4EFC20B1-201D-4ECB-B9BB-F57896DB97B9}"/>
-    <hyperlink ref="G96" r:id="rId95" xr:uid="{746930C4-313B-480B-B37C-03D90AC6A927}"/>
-    <hyperlink ref="G97" r:id="rId96" xr:uid="{58FA99D6-BB9C-4BC1-9F8B-BF374030C667}"/>
-    <hyperlink ref="G98" r:id="rId97" xr:uid="{85D22248-B316-422C-8EC7-1FD902E6EF99}"/>
-    <hyperlink ref="G99" r:id="rId98" xr:uid="{BB0AF305-40E0-442A-9539-54032AD5769A}"/>
-    <hyperlink ref="G100" r:id="rId99" xr:uid="{3E5A0CB5-A713-42DA-9B16-E3FEDF42CBA6}"/>
-    <hyperlink ref="G101" r:id="rId100" xr:uid="{8C40CE9A-CD0D-4E08-9418-34756FD985C7}"/>
-    <hyperlink ref="G102" r:id="rId101" xr:uid="{7F505289-72C1-4889-80E1-2B0A6B7D1E9D}"/>
-    <hyperlink ref="G103" r:id="rId102" xr:uid="{6751844D-35CF-42E5-835E-576E0C897B3C}"/>
-    <hyperlink ref="G104" r:id="rId103" xr:uid="{736129A1-E195-4DCC-8220-91D13C13BCF7}"/>
-    <hyperlink ref="G105" r:id="rId104" xr:uid="{5F030253-DF5F-4623-86BF-888280AA903C}"/>
-    <hyperlink ref="G106" r:id="rId105" xr:uid="{BC66DC5F-8495-4D44-AB70-509AAB926964}"/>
-    <hyperlink ref="G107" r:id="rId106" xr:uid="{4FD0C412-7811-4A4F-BD02-1D4ABD21CDA5}"/>
-    <hyperlink ref="G108" r:id="rId107" xr:uid="{19958429-0291-4AED-A9C0-8855A83576B4}"/>
-    <hyperlink ref="G109" r:id="rId108" xr:uid="{289B07E2-C2EA-403B-A72D-F430BF315F03}"/>
-    <hyperlink ref="G110" r:id="rId109" xr:uid="{D3F8A4A5-67F8-4E87-A6CC-2F71FAA38C79}"/>
-    <hyperlink ref="G111" r:id="rId110" xr:uid="{BF0730D9-468D-43C1-ACC3-A2D4DC80A8E9}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{AFE51801-874F-4F01-A482-1D40CC7A07C9}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{031C2FF6-4EE5-4F02-A5AF-AA05B3BF9155}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{0AC8C0A1-168C-4DDD-8619-731F5322018E}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{63E8D412-428A-41DB-9599-D85C7B2F27E9}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{8EB1CC32-5641-4D96-8C25-F663BFD23839}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{2C7FC974-0008-432F-BA09-E8FB551D6DA9}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{CC059F3D-CCFD-408A-A95D-F86506EA9620}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{EDA3ADE6-4F81-410F-A5A5-962AEDD12E27}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{6D1F44C6-B92D-4B74-9069-9FDFF05110EC}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{8DF1515D-4AF2-49C6-AD0A-7C426448BC01}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{A3B817A3-A3C7-455C-8E64-A39B34F2FFD5}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{2E9BAC2E-E51A-4F47-B31C-DD6E3CFF0C0D}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{FE6113D9-1745-4BE6-9905-D63328D819EA}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{3D45287F-4585-49A9-BD23-70E14C258673}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{0AFECDEC-80FC-4BC1-8AA2-FDF8193FA5AE}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{0DE31635-F06F-41C7-A3FE-62386F2CD36E}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{D332E031-5FFF-4A59-B919-71CAD96742D0}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{36FA1536-74DD-4E9C-9F16-D07B2AEE3AD6}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{230B77D7-1744-458E-A40A-2C186B2358C3}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{C1BA4096-3FD7-4234-95A6-71DF28CD1007}"/>
+    <hyperlink ref="G41" r:id="rId40" xr:uid="{0AAA556C-901C-4982-A689-CC54F237A9B6}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{25924698-7753-4E74-91FF-291F3815C756}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{B2897560-8CB6-45F6-BB8E-AA2BFE779DAB}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{C02DEC0D-2F32-4D0D-A226-0AA304D33995}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{66BB412E-61F7-447C-B789-D6AA7503EF36}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{27245144-F6F4-4C4E-A720-2E5A59EAE6F5}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{42F1FF1F-9008-40E7-A47E-141A8DB53E3A}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{E83BC645-870C-4E81-B6B4-044EB6B01437}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{A9E8AADF-0F2D-4806-853E-DA7DCC7C8951}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{5AE8DA31-C6FF-45F5-B659-8F936166BAB4}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{05FFC44A-2A4A-47E5-A96D-BA55C891D647}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{5D9F4536-AC4C-41AB-A731-68393E7B2356}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{15284273-2E50-4026-BE84-86623DB512C4}"/>
+    <hyperlink ref="G54" r:id="rId53" xr:uid="{1144CC60-2F24-4942-891A-D4F4533E513E}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{E6DB1554-A552-4093-BDF0-16AF329BA45C}"/>
+    <hyperlink ref="G56" r:id="rId55" xr:uid="{CB8C3C17-F4AF-49BB-9581-72AB9B2D6629}"/>
+    <hyperlink ref="G57" r:id="rId56" xr:uid="{755659B7-BA7B-4936-B343-2398BA9F10AD}"/>
+    <hyperlink ref="G58" r:id="rId57" xr:uid="{71E5FDC1-7980-4A36-B6AF-6B37F4A636BF}"/>
+    <hyperlink ref="G59" r:id="rId58" xr:uid="{77C9902D-BE83-4B3B-BA9B-EFFF99953A28}"/>
+    <hyperlink ref="G60" r:id="rId59" xr:uid="{9CCF49C5-B263-4E40-A202-6904E5F9316B}"/>
+    <hyperlink ref="G61" r:id="rId60" xr:uid="{1BA532E1-3DD0-4D1F-88F1-04DE187A4AB4}"/>
+    <hyperlink ref="G62" r:id="rId61" xr:uid="{63920DE0-32F2-43E8-8B95-5F449D5AF8A6}"/>
+    <hyperlink ref="G63" r:id="rId62" xr:uid="{AE7500F1-5861-4B2A-B723-4241B6035B5D}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{E3C94490-5CF0-4C62-AA39-86FA26ED6E75}"/>
+    <hyperlink ref="G65" r:id="rId64" xr:uid="{A96E82A2-BCE2-47D8-8A33-795187849B66}"/>
+    <hyperlink ref="G66" r:id="rId65" xr:uid="{1FC497A2-1955-44DE-92EA-DA123643050A}"/>
+    <hyperlink ref="G67" r:id="rId66" xr:uid="{E8BBC39C-187B-4A92-949E-8B5B7AF80DD2}"/>
+    <hyperlink ref="G68" r:id="rId67" xr:uid="{6EE04029-1E1F-4A4F-B6B6-10AD093D77BA}"/>
+    <hyperlink ref="G69" r:id="rId68" xr:uid="{ABB3B759-F90B-47BC-8E63-3C3E968A952C}"/>
+    <hyperlink ref="G70" r:id="rId69" xr:uid="{AA467EA7-271B-4969-BF1C-86438FD21EC4}"/>
+    <hyperlink ref="G71" r:id="rId70" xr:uid="{AA39597D-51F1-4E34-BEA8-3CD5C606E9C9}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{848FB899-24F3-460E-B84F-70C6F6552C6E}"/>
+    <hyperlink ref="G73" r:id="rId72" xr:uid="{D027E740-17FF-4D5D-B86D-42CCDBD7BD27}"/>
+    <hyperlink ref="G74" r:id="rId73" xr:uid="{8285E300-6937-4C57-9407-EEB5BC7C5294}"/>
+    <hyperlink ref="G75" r:id="rId74" xr:uid="{0216F5F0-266B-4005-989F-C1B81D277FAA}"/>
+    <hyperlink ref="G76" r:id="rId75" xr:uid="{E3E6D9D5-9007-43E7-9C75-E98003B81410}"/>
+    <hyperlink ref="G77" r:id="rId76" xr:uid="{A58B497A-CF1C-4506-B9FE-03775C988E55}"/>
+    <hyperlink ref="G78" r:id="rId77" xr:uid="{0D3F3FF8-780C-462A-9369-DFE10ABD3D26}"/>
+    <hyperlink ref="G79" r:id="rId78" xr:uid="{C24EE8C7-5BF0-4EAE-917D-82472DBC345E}"/>
+    <hyperlink ref="G80" r:id="rId79" xr:uid="{07F9E933-2E6B-4340-A8AD-33B1F378C333}"/>
+    <hyperlink ref="G81" r:id="rId80" xr:uid="{BB12DFF7-30F5-4952-B4DE-E23F44C8DAE2}"/>
+    <hyperlink ref="G82" r:id="rId81" xr:uid="{1C0CCEBC-3F43-4C7F-8503-0516650C6560}"/>
+    <hyperlink ref="G83" r:id="rId82" xr:uid="{898B60B1-0A06-4208-A0FC-137AB1CE829B}"/>
+    <hyperlink ref="G84" r:id="rId83" xr:uid="{421E90E0-5661-4806-B05E-E7B07066A362}"/>
+    <hyperlink ref="G85" r:id="rId84" xr:uid="{9E34BF4C-4A56-4855-972B-06B438501807}"/>
+    <hyperlink ref="G86" r:id="rId85" xr:uid="{5854D680-106F-417B-A1DD-D95BB3E66A40}"/>
+    <hyperlink ref="G87" r:id="rId86" xr:uid="{022BBBE6-92DD-4E69-ABE3-D4D154320F0F}"/>
+    <hyperlink ref="G88" r:id="rId87" xr:uid="{7FFF2F00-7B23-41CC-9423-6A4AD3BA1721}"/>
+    <hyperlink ref="G89" r:id="rId88" xr:uid="{A2E7874B-7BDB-4346-878B-3EB20C6FEE87}"/>
+    <hyperlink ref="G90" r:id="rId89" xr:uid="{85D22248-B316-422C-8EC7-1FD902E6EF99}"/>
+    <hyperlink ref="G91" r:id="rId90" xr:uid="{BB0AF305-40E0-442A-9539-54032AD5769A}"/>
+    <hyperlink ref="G92" r:id="rId91" xr:uid="{3E5A0CB5-A713-42DA-9B16-E3FEDF42CBA6}"/>
+    <hyperlink ref="G93" r:id="rId92" xr:uid="{8C40CE9A-CD0D-4E08-9418-34756FD985C7}"/>
+    <hyperlink ref="G94" r:id="rId93" xr:uid="{7F505289-72C1-4889-80E1-2B0A6B7D1E9D}"/>
+    <hyperlink ref="G95" r:id="rId94" xr:uid="{6751844D-35CF-42E5-835E-576E0C897B3C}"/>
+    <hyperlink ref="G96" r:id="rId95" xr:uid="{736129A1-E195-4DCC-8220-91D13C13BCF7}"/>
+    <hyperlink ref="G97" r:id="rId96" xr:uid="{5F030253-DF5F-4623-86BF-888280AA903C}"/>
+    <hyperlink ref="G98" r:id="rId97" xr:uid="{BC66DC5F-8495-4D44-AB70-509AAB926964}"/>
+    <hyperlink ref="G99" r:id="rId98" xr:uid="{4FD0C412-7811-4A4F-BD02-1D4ABD21CDA5}"/>
+    <hyperlink ref="G100" r:id="rId99" xr:uid="{19958429-0291-4AED-A9C0-8855A83576B4}"/>
+    <hyperlink ref="G101" r:id="rId100" xr:uid="{289B07E2-C2EA-403B-A72D-F430BF315F03}"/>
+    <hyperlink ref="G102" r:id="rId101" xr:uid="{BF0730D9-468D-43C1-ACC3-A2D4DC80A8E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
